--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H2">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I2">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J2">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N2">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O2">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P2">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q2">
-        <v>0.1064968644626667</v>
+        <v>0.007446989240555556</v>
       </c>
       <c r="R2">
-        <v>0.958471780164</v>
+        <v>0.06702290316500001</v>
       </c>
       <c r="S2">
-        <v>0.03207111187944307</v>
+        <v>0.001924762415340235</v>
       </c>
       <c r="T2">
-        <v>0.03361337664599035</v>
+        <v>0.002424224303630089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H3">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I3">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J3">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.963486</v>
       </c>
       <c r="O3">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P3">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q3">
-        <v>1.121754149505333</v>
+        <v>0.08008395760333333</v>
       </c>
       <c r="R3">
-        <v>10.095787345548</v>
+        <v>0.7207556184299999</v>
       </c>
       <c r="S3">
-        <v>0.3378118502505461</v>
+        <v>0.02069864567913591</v>
       </c>
       <c r="T3">
-        <v>0.3540568534272994</v>
+        <v>0.02606979412506833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H4">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I4">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J4">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N4">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O4">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P4">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q4">
-        <v>0.01398075606488889</v>
+        <v>0.1512770254658333</v>
       </c>
       <c r="R4">
-        <v>0.125826804584</v>
+        <v>0.907662152795</v>
       </c>
       <c r="S4">
-        <v>0.004210249702454259</v>
+        <v>0.03909933578732843</v>
       </c>
       <c r="T4">
-        <v>0.004412716015404994</v>
+        <v>0.03283021991562884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H5">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I5">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J5">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N5">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O5">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P5">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q5">
-        <v>0.1982831505883333</v>
+        <v>0.00594172752611111</v>
       </c>
       <c r="R5">
-        <v>1.18969890353</v>
+        <v>0.053475547735</v>
       </c>
       <c r="S5">
-        <v>0.05971219094958568</v>
+        <v>0.001535709728459069</v>
       </c>
       <c r="T5">
-        <v>0.04172245669333442</v>
+        <v>0.001934215265936369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,40 +794,40 @@
         <v>1.532719</v>
       </c>
       <c r="I6">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J6">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N6">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O6">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P6">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q6">
-        <v>0.1125863850513333</v>
+        <v>0.1102762369141111</v>
       </c>
       <c r="R6">
-        <v>1.013277465462</v>
+        <v>0.992486132227</v>
       </c>
       <c r="S6">
-        <v>0.03390494705456003</v>
+        <v>0.02850219723180396</v>
       </c>
       <c r="T6">
-        <v>0.03553539895315528</v>
+        <v>0.03589831071383611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>1.532719</v>
       </c>
       <c r="I7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>6.963486</v>
       </c>
       <c r="O7">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P7">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q7">
         <v>1.185896366492666</v>
@@ -886,10 +886,10 @@
         <v>10.673067298434</v>
       </c>
       <c r="S7">
-        <v>0.3571280266241465</v>
+        <v>0.3065089368308729</v>
       </c>
       <c r="T7">
-        <v>0.3743019236402341</v>
+        <v>0.3860457831175365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +918,40 @@
         <v>1.532719</v>
       </c>
       <c r="I8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N8">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O8">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P8">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q8">
-        <v>0.01478017961911111</v>
+        <v>2.240134980870167</v>
       </c>
       <c r="R8">
-        <v>0.133021616572</v>
+        <v>13.440809885221</v>
       </c>
       <c r="S8">
-        <v>0.004450992961665527</v>
+        <v>0.5789893710315274</v>
       </c>
       <c r="T8">
-        <v>0.004665036355194601</v>
+        <v>0.4861552759660183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -980,288 +980,40 @@
         <v>1.532719</v>
       </c>
       <c r="I9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N9">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O9">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P9">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q9">
-        <v>0.2096210367691667</v>
+        <v>0.08798607479922221</v>
       </c>
       <c r="R9">
-        <v>1.257726220615</v>
+        <v>0.7918746731929999</v>
       </c>
       <c r="S9">
-        <v>0.06312655078089666</v>
+        <v>0.02274104129553215</v>
       </c>
       <c r="T9">
-        <v>0.04410815847268473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.119852</v>
-      </c>
-      <c r="H10">
-        <v>0.359556</v>
-      </c>
-      <c r="I10">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J10">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.220366</v>
-      </c>
-      <c r="N10">
-        <v>0.661098</v>
-      </c>
-      <c r="O10">
-        <v>0.07392971980931644</v>
-      </c>
-      <c r="P10">
-        <v>0.07748491934499904</v>
-      </c>
-      <c r="Q10">
-        <v>0.026411305832</v>
-      </c>
-      <c r="R10">
-        <v>0.237701752488</v>
-      </c>
-      <c r="S10">
-        <v>0.007953660875313339</v>
-      </c>
-      <c r="T10">
-        <v>0.008336143745853414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.119852</v>
-      </c>
-      <c r="H11">
-        <v>0.359556</v>
-      </c>
-      <c r="I11">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J11">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.321162</v>
-      </c>
-      <c r="N11">
-        <v>6.963486</v>
-      </c>
-      <c r="O11">
-        <v>0.778717480428163</v>
-      </c>
-      <c r="P11">
-        <v>0.816165154137556</v>
-      </c>
-      <c r="Q11">
-        <v>0.278195908024</v>
-      </c>
-      <c r="R11">
-        <v>2.503763172216</v>
-      </c>
-      <c r="S11">
-        <v>0.08377760355347041</v>
-      </c>
-      <c r="T11">
-        <v>0.0878063770700226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.119852</v>
-      </c>
-      <c r="H12">
-        <v>0.359556</v>
-      </c>
-      <c r="I12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.02892933333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.086788</v>
-      </c>
-      <c r="O12">
-        <v>0.009705387889255384</v>
-      </c>
-      <c r="P12">
-        <v>0.01017210939998877</v>
-      </c>
-      <c r="Q12">
-        <v>0.003467238458666667</v>
-      </c>
-      <c r="R12">
-        <v>0.031205146128</v>
-      </c>
-      <c r="S12">
-        <v>0.001044145225135599</v>
-      </c>
-      <c r="T12">
-        <v>0.001094357029389177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.119852</v>
-      </c>
-      <c r="H13">
-        <v>0.359556</v>
-      </c>
-      <c r="I13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4102925</v>
-      </c>
-      <c r="N13">
-        <v>0.820585</v>
-      </c>
-      <c r="O13">
-        <v>0.1376474118732652</v>
-      </c>
-      <c r="P13">
-        <v>0.09617781711745617</v>
-      </c>
-      <c r="Q13">
-        <v>0.04917437671</v>
-      </c>
-      <c r="R13">
-        <v>0.29504626026</v>
-      </c>
-      <c r="S13">
-        <v>0.01480867014278291</v>
-      </c>
-      <c r="T13">
-        <v>0.01034720195143704</v>
+        <v>0.02864217659234554</v>
       </c>
     </row>
   </sheetData>
